--- a/Documentation/Тестирование данные.xlsx
+++ b/Documentation/Тестирование данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Сохранение L" sheetId="1" r:id="rId1"/>
@@ -292,11 +292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="21765504"/>
-        <c:axId val="22828160"/>
+        <c:axId val="135893760"/>
+        <c:axId val="135895296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21765504"/>
+        <c:axId val="135893760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,7 +305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="22828160"/>
+        <c:crossAx val="135895296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -313,7 +313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22828160"/>
+        <c:axId val="135895296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,7 +324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="21765504"/>
+        <c:crossAx val="135893760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -609,11 +609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140732672"/>
-        <c:axId val="140746752"/>
+        <c:axId val="136139136"/>
+        <c:axId val="136140672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140732672"/>
+        <c:axId val="136139136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,7 +622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140746752"/>
+        <c:crossAx val="136140672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -630,7 +630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140746752"/>
+        <c:axId val="136140672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140732672"/>
+        <c:crossAx val="136139136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,11 +821,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141695616"/>
-        <c:axId val="141726464"/>
+        <c:axId val="136206976"/>
+        <c:axId val="136208768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141695616"/>
+        <c:axId val="136206976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141726464"/>
+        <c:crossAx val="136208768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -842,7 +842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141726464"/>
+        <c:axId val="136208768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141695616"/>
+        <c:crossAx val="136206976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -899,7 +899,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1700 GS</c:v>
+            <c:v>1000 GS</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1145,11 +1145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140405376"/>
-        <c:axId val="140427648"/>
+        <c:axId val="136252032"/>
+        <c:axId val="136262016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140405376"/>
+        <c:axId val="136252032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140427648"/>
+        <c:crossAx val="136262016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1166,7 +1166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140427648"/>
+        <c:axId val="136262016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140405376"/>
+        <c:crossAx val="136252032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,15 +1234,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1625,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -1876,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Тестирование данные.xlsx
+++ b/Documentation/Тестирование данные.xlsx
@@ -4,15 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Сохранение L" sheetId="1" r:id="rId1"/>
-    <sheet name="Загрузка L" sheetId="2" r:id="rId2"/>
-    <sheet name="Сохранение LG" sheetId="3" r:id="rId3"/>
+    <sheet name="S" sheetId="1" r:id="rId1"/>
+    <sheet name="L" sheetId="3" r:id="rId2"/>
+    <sheet name="GS" sheetId="2" r:id="rId3"/>
+    <sheet name="IRBIS" sheetId="4" r:id="rId4"/>
+    <sheet name="Wine" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -159,7 +172,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Сохранение L'!$A$1</c:f>
+              <c:f>S!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -173,7 +186,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Сохранение L'!$A$2:$A$13</c:f>
+              <c:f>S!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -223,7 +236,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Сохранение L'!$B$1</c:f>
+              <c:f>S!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -237,7 +250,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Сохранение L'!$B$2:$B$13</c:f>
+              <c:f>S!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -292,11 +305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135893760"/>
-        <c:axId val="135895296"/>
+        <c:axId val="131134592"/>
+        <c:axId val="131136128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135893760"/>
+        <c:axId val="131134592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,7 +318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135895296"/>
+        <c:crossAx val="131136128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -313,7 +326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135895296"/>
+        <c:axId val="131136128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,14 +337,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135893760"/>
+        <c:crossAx val="131134592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -377,7 +389,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Сохранение L'!$A$2:$A$13</c:f>
+              <c:f>S!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -433,7 +445,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Сохранение L'!$B$2:$B$13</c:f>
+              <c:f>S!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -489,7 +501,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Загрузка L'!$A$2:$A$13</c:f>
+              <c:f>GS!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -554,7 +566,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Загрузка L'!$B$2:$B$13</c:f>
+              <c:f>GS!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -609,11 +621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136139136"/>
-        <c:axId val="136140672"/>
+        <c:axId val="130728704"/>
+        <c:axId val="130730240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136139136"/>
+        <c:axId val="130728704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,7 +634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136140672"/>
+        <c:crossAx val="130730240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -630,7 +642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136140672"/>
+        <c:axId val="130730240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,14 +653,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136139136"/>
+        <c:crossAx val="130728704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -684,63 +695,183 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Загрузка L'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:v>1700 GS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>L!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>37325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1700 L</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GS!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1000 GS</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Загрузка L'!$A$2:$A$13</c:f>
+              <c:f>L!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>11148</c:v>
+                  <c:v>13747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15959</c:v>
+                  <c:v>19548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18979</c:v>
+                  <c:v>22899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19566</c:v>
+                  <c:v>21683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16747</c:v>
+                  <c:v>20978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19460</c:v>
+                  <c:v>21147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19111</c:v>
+                  <c:v>19297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20051</c:v>
+                  <c:v>19250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20795</c:v>
+                  <c:v>20386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16681</c:v>
+                  <c:v>19680</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18838</c:v>
+                  <c:v>19475</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17901</c:v>
+                  <c:v>19749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,63 +879,55 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Загрузка L'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1700</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>1000 L</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Загрузка L'!$B$2:$B$13</c:f>
+              <c:f>GS!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>29054</c:v>
+                  <c:v>11148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43442</c:v>
+                  <c:v>15959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56200</c:v>
+                  <c:v>18979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44799</c:v>
+                  <c:v>19566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52760</c:v>
+                  <c:v>16747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43027</c:v>
+                  <c:v>19460</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53834</c:v>
+                  <c:v>19111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51054</c:v>
+                  <c:v>20051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53874</c:v>
+                  <c:v>20795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49513</c:v>
+                  <c:v>16681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49335</c:v>
+                  <c:v>18838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43812</c:v>
+                  <c:v>17901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,11 +944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136206976"/>
-        <c:axId val="136208768"/>
+        <c:axId val="131433216"/>
+        <c:axId val="131434752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136206976"/>
+        <c:axId val="131433216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136208768"/>
+        <c:crossAx val="131434752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -842,7 +965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136208768"/>
+        <c:axId val="131434752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136206976"/>
+        <c:crossAx val="131433216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -899,52 +1022,60 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1000 GS</c:v>
+            <c:strRef>
+              <c:f>GS!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Сохранение LG'!$A$2:$A$13</c:f>
+              <c:f>GS!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13747</c:v>
+                  <c:v>11148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19548</c:v>
+                  <c:v>15959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22899</c:v>
+                  <c:v>18979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21683</c:v>
+                  <c:v>19566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20978</c:v>
+                  <c:v>16747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21147</c:v>
+                  <c:v>19460</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19297</c:v>
+                  <c:v>19111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19250</c:v>
+                  <c:v>20051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20386</c:v>
+                  <c:v>20795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19680</c:v>
+                  <c:v>16681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19475</c:v>
+                  <c:v>18838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19749</c:v>
+                  <c:v>17901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -955,142 +1086,22 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>1700 GS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Сохранение LG'!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+            <c:strRef>
+              <c:f>GS!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37325</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58645</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>53257</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57208</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54806</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64462</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54355</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58331</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57937</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>54540</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>1000 L</c:v>
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Загрузка L'!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>11148</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15959</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18979</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19566</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16747</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19460</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19111</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20051</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20795</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16681</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18838</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>1700 L</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Загрузка L'!$B$2:$B$13</c:f>
+              <c:f>GS!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1145,11 +1156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136252032"/>
-        <c:axId val="136262016"/>
+        <c:axId val="136997888"/>
+        <c:axId val="136999680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136252032"/>
+        <c:axId val="136997888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136262016"/>
+        <c:crossAx val="136999680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1166,7 +1177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136262016"/>
+        <c:axId val="136999680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1188,513 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136252032"/>
+        <c:crossAx val="136997888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GS!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>IRBIS!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>59349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79610</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81970</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90279</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wine!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21518</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20377</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21069</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23094</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="136714496"/>
+        <c:axId val="136724480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="136714496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136724480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136724480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136714496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>L!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>37325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>IRBIS!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>48534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>186849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>185484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>187727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wine!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18830</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="100439168"/>
+        <c:axId val="100440704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="100439168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100440704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100440704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100439168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,6 +1787,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1301,20 +1853,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1327,7 +1909,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1625,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +2339,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,98 +2354,98 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>11148</v>
+        <v>13747</v>
       </c>
       <c r="B2" s="3">
-        <v>29054</v>
+        <v>37325</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>15959</v>
+        <v>19548</v>
       </c>
       <c r="B3" s="4">
-        <v>43442</v>
+        <v>54672</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>18979</v>
+        <v>22899</v>
       </c>
       <c r="B4" s="4">
-        <v>56200</v>
+        <v>58645</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>19566</v>
+        <v>21683</v>
       </c>
       <c r="B5" s="4">
-        <v>44799</v>
+        <v>53188</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>16747</v>
+        <v>20978</v>
       </c>
       <c r="B6" s="4">
-        <v>52760</v>
+        <v>53257</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>19460</v>
+        <v>21147</v>
       </c>
       <c r="B7" s="4">
-        <v>43027</v>
+        <v>57208</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>19111</v>
+        <v>19297</v>
       </c>
       <c r="B8" s="4">
-        <v>53834</v>
+        <v>54806</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>20051</v>
+        <v>19250</v>
       </c>
       <c r="B9" s="4">
-        <v>51054</v>
+        <v>64462</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>20795</v>
+        <v>20386</v>
       </c>
       <c r="B10" s="4">
-        <v>53874</v>
+        <v>54355</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>16681</v>
+        <v>19680</v>
       </c>
       <c r="B11" s="4">
-        <v>49513</v>
+        <v>58331</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>18838</v>
+        <v>19475</v>
       </c>
       <c r="B12" s="4">
-        <v>49335</v>
+        <v>57937</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>17901</v>
+        <v>19749</v>
       </c>
       <c r="B13" s="4">
-        <v>43812</v>
+        <v>54540</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +2459,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,102 +2474,354 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>13747</v>
+        <v>11148</v>
       </c>
       <c r="B2" s="3">
-        <v>37325</v>
+        <v>29054</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>19548</v>
+        <v>15959</v>
       </c>
       <c r="B3" s="4">
-        <v>54672</v>
+        <v>43442</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>22899</v>
+        <v>18979</v>
       </c>
       <c r="B4" s="4">
-        <v>58645</v>
+        <v>56200</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>21683</v>
+        <v>19566</v>
       </c>
       <c r="B5" s="4">
-        <v>53188</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>20978</v>
+        <v>16747</v>
       </c>
       <c r="B6" s="4">
-        <v>53257</v>
+        <v>52760</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>21147</v>
+        <v>19460</v>
       </c>
       <c r="B7" s="4">
-        <v>57208</v>
+        <v>43027</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>19297</v>
+        <v>19111</v>
       </c>
       <c r="B8" s="4">
-        <v>54806</v>
+        <v>53834</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>19250</v>
+        <v>20051</v>
       </c>
       <c r="B9" s="4">
-        <v>64462</v>
+        <v>51054</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>20386</v>
+        <v>20795</v>
       </c>
       <c r="B10" s="4">
-        <v>54355</v>
+        <v>53874</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>19680</v>
+        <v>16681</v>
       </c>
       <c r="B11" s="4">
-        <v>58331</v>
+        <v>49513</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>19475</v>
+        <v>18838</v>
       </c>
       <c r="B12" s="4">
-        <v>57937</v>
+        <v>49335</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>19749</v>
+        <v>17901</v>
       </c>
       <c r="B13" s="4">
-        <v>54540</v>
+        <v>43812</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1700</v>
+      </c>
+      <c r="B2">
+        <v>48534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59349</v>
+      </c>
+      <c r="B3">
+        <v>67401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>79610</v>
+      </c>
+      <c r="B4">
+        <v>71008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>81037</v>
+      </c>
+      <c r="B5">
+        <v>69069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>82884</v>
+      </c>
+      <c r="B6">
+        <v>68831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>84965</v>
+      </c>
+      <c r="B7">
+        <v>74668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>83108</v>
+      </c>
+      <c r="B8">
+        <v>71440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>83990</v>
+      </c>
+      <c r="B9">
+        <v>70755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>84269</v>
+      </c>
+      <c r="B10">
+        <v>69861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>81216</v>
+      </c>
+      <c r="B11">
+        <v>188361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>81970</v>
+      </c>
+      <c r="B12">
+        <v>186849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>90279</v>
+      </c>
+      <c r="B13">
+        <v>185484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>81482</v>
+      </c>
+      <c r="B14">
+        <v>187727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14829</v>
+      </c>
+      <c r="B3">
+        <v>11412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20179</v>
+      </c>
+      <c r="B4">
+        <v>16221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>22046</v>
+      </c>
+      <c r="B5">
+        <v>17889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>23480</v>
+      </c>
+      <c r="B6">
+        <v>18481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>21078</v>
+      </c>
+      <c r="B7">
+        <v>17726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20656</v>
+      </c>
+      <c r="B8">
+        <v>19003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>21518</v>
+      </c>
+      <c r="B9">
+        <v>18527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>24153</v>
+      </c>
+      <c r="B10">
+        <v>17666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20377</v>
+      </c>
+      <c r="B11">
+        <v>18830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>21069</v>
+      </c>
+      <c r="B12">
+        <v>18802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>23094</v>
+      </c>
+      <c r="B13">
+        <v>18729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20386</v>
+      </c>
+      <c r="B14">
+        <v>16804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>